--- a/results/exp3/Results.xlsx
+++ b/results/exp3/Results.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -498,34 +498,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.101</v>
+        <v>0.435</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09</v>
+        <v>0.545</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09</v>
+        <v>0.545</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.09</v>
+        <v>0.57</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.081</v>
+        <v>0.459</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.111</v>
+        <v>0.461</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.17</v>
+        <v>0.043</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.066</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.064</v>
+        <v>0.644</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.063</v>
+        <v>0.702</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.073</v>
+        <v>0.63</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.063</v>
+        <v>0.702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.047</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.063</v>
+        <v>0.694</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.097</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.042</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -586,34 +586,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.049</v>
+        <v>0.735</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.026</v>
+        <v>0.826</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.075</v>
+        <v>0.621</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.061</v>
+        <v>0.711</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.026</v>
+        <v>0.826</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.047</v>
+        <v>0.773</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05</v>
+        <v>0.718</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.033</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -630,34 +630,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.049</v>
+        <v>0.73</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.042</v>
+        <v>0.795</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.077</v>
+        <v>0.607</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.057</v>
+        <v>0.727</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03</v>
+        <v>0.801</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.042</v>
+        <v>0.795</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.054</v>
+        <v>0.699</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.034</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -674,34 +674,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.052</v>
+        <v>0.718</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.042</v>
+        <v>0.757</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.082</v>
+        <v>0.595</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.062</v>
+        <v>0.707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.031</v>
+        <v>0.802</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.048</v>
+        <v>0.769</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.042</v>
+        <v>0.757</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.048</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_dwa2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -718,28 +718,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.057</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.031</v>
+        <v>0.781</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.078</v>
+        <v>0.603</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.073</v>
+        <v>0.655</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.033</v>
+        <v>0.781</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.061</v>
+        <v>0.704</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.609</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.031</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +782,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_0</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -790,43 +790,43 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.183</v>
+        <v>0.471</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.052</v>
+        <v>0.494</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.052</v>
+        <v>0.494</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.027</v>
+        <v>0.516</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.293</v>
+        <v>0.547</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.148</v>
+        <v>0.482</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.398</v>
+        <v>0.19</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.181</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -834,43 +834,43 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.22</v>
+        <v>0.733</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.025</v>
+        <v>0.881</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.079</v>
+        <v>0.589</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.025</v>
+        <v>0.881</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.395</v>
+        <v>0.777</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.095</v>
+        <v>0.822</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.55</v>
+        <v>0.652</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.174</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_2</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -878,43 +878,43 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.035</v>
+        <v>0.801</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.017</v>
+        <v>0.896</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.063</v>
+        <v>0.645</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.032</v>
+        <v>0.857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.017</v>
+        <v>0.896</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.029</v>
+        <v>0.861</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.051</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.019</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_3</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -922,43 +922,43 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.033</v>
+        <v>0.778</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.022</v>
+        <v>0.85</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.066</v>
+        <v>0.643</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.023</v>
+        <v>0.805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.026</v>
+        <v>0.826</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.022</v>
+        <v>0.85</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.034</v>
+        <v>0.74</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.03</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_4</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -975,34 +975,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.042</v>
+        <v>0.757</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.026</v>
+        <v>0.856</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.075</v>
+        <v>0.618</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.031</v>
+        <v>0.855</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.043</v>
+        <v>0.71</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.031</v>
+        <v>0.851</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.026</v>
+        <v>0.856</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.049</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_dwa2_5</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1019,28 +1019,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.044</v>
+        <v>0.751</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02</v>
+        <v>0.842</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.065</v>
+        <v>0.657</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05</v>
+        <v>0.733</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.024</v>
+        <v>0.837</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.041</v>
+        <v>0.774</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.061</v>
+        <v>0.663</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.02</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="15">
@@ -1083,7 +1083,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_0</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1096,38 +1096,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.035</v>
+        <v>0.792</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.052</v>
+        <v>0.732</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.052</v>
+        <v>0.732</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.028</v>
+        <v>0.839</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.026</v>
+        <v>0.87</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.028</v>
+        <v>0.827</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.054</v>
+        <v>0.641</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.025</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1144,34 +1144,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.077</v>
+        <v>0.543</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.024</v>
+        <v>0.885</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.079</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.024</v>
+        <v>0.885</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.122</v>
+        <v>0.18</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.038</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.127</v>
+        <v>0.285</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_2</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1188,34 +1188,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.035</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.016</v>
+        <v>0.893</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.063</v>
+        <v>0.679</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.031</v>
+        <v>0.853</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.016</v>
+        <v>0.893</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.029</v>
+        <v>0.86</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.052</v>
+        <v>0.71</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.018</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_3</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1223,43 +1223,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.04</v>
+        <v>0.752</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.022</v>
+        <v>0.883</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.023</v>
+        <v>0.865</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.04</v>
+        <v>0.707</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.022</v>
+        <v>0.883</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.048</v>
+        <v>0.696</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.035</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_4</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.046</v>
+        <v>0.742</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.032</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.083</v>
+        <v>0.58</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.044</v>
+        <v>0.79</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.034</v>
+        <v>0.77</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.035</v>
+        <v>0.83</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.032</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.047</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_dwa2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1320,28 +1320,630 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Model name</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Trainset number</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>average score</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>own score</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>All scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>models/modelRF_dwa2_5</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Model name</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Trainset number</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>epsilon</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>penalty</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>average score</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>own score</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>All scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.091</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="K31" t="n">
         <v>-0.037</v>
       </c>
-      <c r="F21" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.062</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.038</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.031</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-0.017</v>
+      <c r="L31" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.266</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.056</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_4</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>models/modelSGD_dwa2_5</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.285</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +2005,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1420,34 +2022,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.135</v>
+        <v>0.48</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.095</v>
+        <v>0.628</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.095</v>
+        <v>0.628</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.132</v>
+        <v>0.616</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.151</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.161</v>
+        <v>0.499</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.138</v>
+        <v>0.431</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.131</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1464,34 +2066,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.083</v>
+        <v>0.681</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.073</v>
+        <v>0.788</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.098</v>
+        <v>0.615</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.073</v>
+        <v>0.788</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.061</v>
+        <v>0.696</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.093</v>
+        <v>0.709</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.092</v>
+        <v>0.621</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.082</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1508,34 +2110,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.074</v>
+        <v>0.73</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.019</v>
+        <v>0.904</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.094</v>
+        <v>0.631</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.089</v>
+        <v>0.742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.019</v>
+        <v>0.904</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.098</v>
+        <v>0.694</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.083</v>
+        <v>0.66</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.06</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1543,7 +2145,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1552,34 +2154,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.078</v>
+        <v>0.711</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08</v>
+        <v>0.753</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.091</v>
+        <v>0.64</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.099</v>
+        <v>0.717</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.08</v>
+        <v>0.753</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.097</v>
+        <v>0.607</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.064</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1587,7 +2189,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1596,34 +2198,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.095</v>
+        <v>0.675</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.068</v>
+        <v>0.712</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.113</v>
+        <v>0.579</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.091</v>
+        <v>0.736</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.061</v>
+        <v>0.774</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.144</v>
+        <v>0.592</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.068</v>
+        <v>0.712</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.092</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SVR_linear</t>
+          <t>models/modelSVR_linear_teb1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1631,7 +2233,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1640,28 +2242,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.082</v>
+        <v>0.701</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.061</v>
+        <v>0.745</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.092</v>
+        <v>0.639</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.111</v>
+        <v>0.677</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.028</v>
+        <v>0.864</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.103</v>
+        <v>0.678</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.097</v>
+        <v>0.602</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.061</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="8">
@@ -1704,7 +2306,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_0</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1721,34 +2323,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.056</v>
+        <v>0.764</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.027</v>
+        <v>0.896</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.027</v>
+        <v>0.896</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.033</v>
+        <v>0.903</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.14</v>
+        <v>0.306</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.046</v>
+        <v>0.856</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.046</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.044</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1756,7 +2358,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1765,34 +2367,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.198</v>
+        <v>0.11</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.017</v>
+        <v>0.951</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08699999999999999</v>
+        <v>0.658</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.017</v>
+        <v>0.951</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.675</v>
+        <v>-2.367</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.111</v>
+        <v>0.66</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.029</v>
+        <v>0.881</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.271</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_2</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1809,34 +2411,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.043</v>
+        <v>0.84</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.007</v>
+        <v>0.967</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.067</v>
+        <v>0.736</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.049</v>
+        <v>0.857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.007</v>
+        <v>0.967</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.047</v>
+        <v>0.854</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.061</v>
+        <v>0.751</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.03</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_3</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1844,43 +2446,43 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.046</v>
+        <v>0.858</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.026</v>
+        <v>0.925</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.729</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.028</v>
+        <v>0.927</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.064</v>
+        <v>0.878</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.026</v>
+        <v>0.925</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.042</v>
+        <v>0.841</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.047</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_4</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1888,43 +2490,43 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.178</v>
+        <v>0.697</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.067</v>
+        <v>0.611</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.026</v>
+        <v>0.911</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.576</v>
+        <v>0.481</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.13</v>
+        <v>0.649</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.248</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SVR_rbf</t>
+          <t>models/modelSVR_rbf_teb1_5</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1932,37 +2534,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.043</v>
+        <v>0.766</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.028</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.064</v>
+        <v>0.706</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.049</v>
+        <v>0.746</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.902</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.049</v>
+        <v>0.763</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.057</v>
+        <v>0.668</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.028</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2005,7 +2607,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_teb1_0</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2022,34 +2624,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.042</v>
+        <v>0.841</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.054</v>
+        <v>0.788</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.054</v>
+        <v>0.788</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.047</v>
+        <v>0.864</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02</v>
+        <v>0.9</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.048</v>
+        <v>0.85</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.05</v>
+        <v>0.795</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.036</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_teb1_1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2057,7 +2659,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2066,34 +2668,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.075</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.016</v>
+        <v>0.953</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.091</v>
+        <v>0.649</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.016</v>
+        <v>0.953</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.15</v>
+        <v>0.253</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.067</v>
+        <v>0.802</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.034</v>
+        <v>0.866</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.093</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_teb1_2</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2101,43 +2703,43 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.047</v>
+        <v>0.836</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007</v>
+        <v>0.968</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.051</v>
+        <v>0.858</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.007</v>
+        <v>0.968</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.052</v>
+        <v>0.847</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.067</v>
+        <v>0.737</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.034</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_teb1_3</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2145,43 +2747,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.038</v>
+        <v>0.843</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.025</v>
+        <v>0.917</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.722</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.025</v>
+        <v>0.92</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.027</v>
+        <v>0.833</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.025</v>
+        <v>0.917</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.041</v>
+        <v>0.826</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.037</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SVR_poly</t>
+          <t>models/modelSVR_poly_teb1_4</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2198,28 +2800,630 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.103</v>
+        <v>0.573</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.019</v>
+        <v>0.923</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.075</v>
+        <v>0.703</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.03</v>
+        <v>0.912</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.229</v>
+        <v>-0.135</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.116</v>
+        <v>0.639</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.019</v>
+        <v>0.923</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.146</v>
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Model name</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Trainset number</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>average score</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>own score</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>All scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.882</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.905</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.712</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>models/modelRF_teb1_5</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Model name</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Trainset number</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>epsilon</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>penalty</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>average score</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>own score</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>All scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.233</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.357</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.239</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.411</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_3</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.122</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>models/modelSGD_teb1_5</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>huber</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.163</v>
       </c>
     </row>
   </sheetData>
